--- a/01_Advanced Excel/sep1.xlsx
+++ b/01_Advanced Excel/sep1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\24_DS_CLUB_BATCH1_AHM\01_Advanced Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C4581A-A58C-4A1C-9C33-79D4BFFFF1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DF9FC5-4156-4239-95AE-5DCC3E79B52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{65B08B18-C9BC-4687-A3BE-1994E4BC8EA6}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>Student No</t>
   </si>
@@ -36,12 +36,6 @@
     <t>Sub 2</t>
   </si>
   <si>
-    <t>Subject Total</t>
-  </si>
-  <si>
-    <t>Fixed Internal Marks</t>
-  </si>
-  <si>
     <t>Total Marks</t>
   </si>
   <si>
@@ -51,12 +45,6 @@
     <t>Attendance</t>
   </si>
   <si>
-    <t>Independence Day</t>
-  </si>
-  <si>
-    <t>Sports Day</t>
-  </si>
-  <si>
     <t>Final Marks</t>
   </si>
   <si>
@@ -88,9 +76,6 @@
   </si>
   <si>
     <t>Total marks of students whose attendance was atleast 70%</t>
-  </si>
-  <si>
-    <t>Qualified or Not</t>
   </si>
   <si>
     <t>Total marks of students whose attendance was atleast 70% &amp; attended independence day</t>
@@ -102,6 +87,35 @@
   <si>
     <t>Average by 
 AVERAGE formula</t>
+  </si>
+  <si>
+    <t>Fixed 
+Internal Marks</t>
+  </si>
+  <si>
+    <t>Qualified 
+or Not</t>
+  </si>
+  <si>
+    <t>Independence 
+Day</t>
+  </si>
+  <si>
+    <t>Subject 
+Total</t>
+  </si>
+  <si>
+    <t>Sports 
+Day</t>
+  </si>
+  <si>
+    <t>Republic Day</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Number of students who attended Republic Day</t>
   </si>
 </sst>
 </file>
@@ -137,11 +151,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -462,29 +473,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD18B13-F5FE-4198-B933-1F2BB3FE566A}">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.21875" customWidth="1"/>
-    <col min="2" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="5.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="63.109375" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" customWidth="1"/>
+    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.88671875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -494,38 +506,41 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="N1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -535,38 +550,79 @@
       <c r="C2">
         <v>32</v>
       </c>
+      <c r="D2">
+        <f>B2+C2</f>
+        <v>54</v>
+      </c>
       <c r="E2">
         <v>20</v>
       </c>
+      <c r="F2">
+        <f>D2+$E$2</f>
+        <v>74</v>
+      </c>
       <c r="G2">
         <v>10</v>
       </c>
       <c r="H2">
         <v>55</v>
       </c>
+      <c r="I2" t="str">
+        <f>IF(H2&gt;50, "Yes", "No")</f>
+        <v>Yes</v>
+      </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2">
+        <f>IF(I2="Yes", F2+$G$2, F2)</f>
+        <v>84</v>
+      </c>
+      <c r="N2" s="1">
+        <f>SUM(J2:J15)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="C3">
         <v>31</v>
       </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D15" si="0">B3+C3</f>
+        <v>31</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F15" si="1">D3+$E$2</f>
+        <v>51</v>
+      </c>
       <c r="H3">
         <v>68</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I15" si="2">IF(H3&gt;50, "Yes", "No")</f>
+        <v>Yes</v>
+      </c>
+      <c r="L3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M15" si="3">IF(I3="Yes", F3+$G$2, F3)</f>
+        <v>61</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -576,29 +632,70 @@
       <c r="C4">
         <v>30</v>
       </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
       <c r="H4">
         <v>77</v>
       </c>
-      <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I4" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="N4" s="1">
+        <f>COUNT(C2:C15)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>15</v>
       </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
       <c r="H5">
         <v>98</v>
       </c>
+      <c r="I5" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
       <c r="J5">
         <v>1</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -608,36 +705,77 @@
       <c r="C6">
         <v>32</v>
       </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
       <c r="H6">
         <v>83</v>
       </c>
+      <c r="I6" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="L6" t="s">
+        <v>8</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="N6" s="1">
+        <f>COUNT(B2:B15)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="C7">
         <v>34</v>
       </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
       <c r="H7">
         <v>92</v>
       </c>
+      <c r="I7" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="L7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -647,29 +785,70 @@
       <c r="C8">
         <v>21</v>
       </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
       <c r="H8">
         <v>52</v>
       </c>
+      <c r="I8" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
       <c r="J8">
         <v>1</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
         <v>25</v>
       </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
       <c r="H9">
         <v>33</v>
       </c>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I9" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="L9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="N9" s="1">
+        <f>COUNTA(K2:K15)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -679,20 +858,39 @@
       <c r="C10">
         <v>12</v>
       </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
       <c r="H10">
         <v>8</v>
       </c>
+      <c r="I10" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -702,29 +900,70 @@
       <c r="C11">
         <v>11</v>
       </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
       <c r="H11">
         <v>42</v>
       </c>
-      <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I11" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
+      <c r="L11" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="N11" s="1">
+        <f>COUNTIF(H2:H15, "&gt;=70")</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
       <c r="H12">
         <v>49</v>
       </c>
+      <c r="I12" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>12</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="L12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -734,35 +973,76 @@
       <c r="C13">
         <v>27</v>
       </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
       <c r="H13">
         <v>39</v>
       </c>
+      <c r="I13" t="str">
+        <f t="shared" si="2"/>
+        <v>No</v>
+      </c>
       <c r="K13" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="L13" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="N13" s="1">
+        <f>COUNTIF(H2:H15, 8)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="C14">
         <v>29</v>
       </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
       <c r="H14">
         <v>90</v>
       </c>
+      <c r="I14" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="K14" t="s">
-        <v>12</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="L14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -772,41 +1052,118 @@
       <c r="C15">
         <v>9</v>
       </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
       <c r="H15">
         <v>80</v>
       </c>
+      <c r="I15" t="str">
+        <f t="shared" si="2"/>
+        <v>Yes</v>
+      </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="K15" t="s">
-        <v>12</v>
-      </c>
-      <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="M16" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="L15" t="s">
+        <v>8</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="N15" s="2">
+        <f>COUNTIF(L2:L15, "P")</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f>SUM(B2:B15)</f>
+        <v>210</v>
+      </c>
+      <c r="C16">
+        <f>SUM(C2:C15)</f>
+        <v>268</v>
+      </c>
+      <c r="D16">
+        <f>SUM(D2:D15)</f>
+        <v>478</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <f>ROUND(B16/14, 0)</f>
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <f>ROUND(C16/14, 0)</f>
         <v>19</v>
       </c>
-      <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
+      <c r="D17">
+        <f>ROUND(D16/14, 0)</f>
+        <v>34</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <f>ROUND(AVERAGE(B2:B15), 0)</f>
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <f>ROUND(AVERAGE(C2:C15), 0)</f>
         <v>24</v>
       </c>
-      <c r="M19" s="1"/>
+      <c r="D18">
+        <f>ROUND(AVERAGE(D2:D15), 0)</f>
+        <v>34</v>
+      </c>
+      <c r="N18" s="1">
+        <f>COUNTIFS(B2:B15, "&gt;=25", C2:C15, "&lt;=20")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N19" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N20" s="1">
+        <f>SUMIF(H2:H15, "&gt;=70", F2:F15)</f>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="N21" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N22" s="2">
+        <f>SUMIFS(F2:F15, H2:H15, "&gt;=70", J2:J15, 1)</f>
+        <v>264</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01_Advanced Excel/sep1.xlsx
+++ b/01_Advanced Excel/sep1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\24_DS_CLUB_BATCH1_AHM\01_Advanced Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DF9FC5-4156-4239-95AE-5DCC3E79B52A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D405750-BB38-4032-A309-2E5AA9E7C4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{65B08B18-C9BC-4687-A3BE-1994E4BC8EA6}"/>
   </bookViews>
@@ -476,7 +476,7 @@
   <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -491,7 +491,7 @@
     <col min="9" max="9" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" customWidth="1"/>
+    <col min="12" max="12" width="8.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="38.88671875" style="2" customWidth="1"/>
   </cols>
